--- a/grammar.xlsx
+++ b/grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijakrabbani/Documents/Project/grammar-exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E4368D-BF57-804D-8237-AB5AD5F1BD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0D5FFB-DF2B-BB4C-B20A-9A614930B322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{92B4E6FC-0E87-094C-9FED-DCD60F1192F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{92B4E6FC-0E87-094C-9FED-DCD60F1192F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Grammar Concept</t>
   </si>
@@ -369,14 +369,540 @@
   </si>
   <si>
     <t>He likes reading, writing, and jogging.</t>
+  </si>
+  <si>
+    <t>Subordinate Clause – Cause</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explains why something happens, often using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>because, since, as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Since doctors are trained with public funds, they are expected to serve their home country.</t>
+  </si>
+  <si>
+    <t>Subordinate Clause – Result</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows an effect or outcome, often using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that, such that, as a result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The shortage of resources is severe </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that doctors must find alternative treatments.</t>
+    </r>
+  </si>
+  <si>
+    <t>Subordinate Clause – Contrast</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Expresses a difference, often using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>although, though, whereas, while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Although working abroad offers higher pay, some professionals prefer to serve their country.</t>
+  </si>
+  <si>
+    <t>Subordinate Clause – Condition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Describes a situation and its result, often using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if, unless, provided that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If professionals are restricted, their career growth may be limited.</t>
+  </si>
+  <si>
+    <t>Subordinate Clause – Purpose</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explains the reason for doing something, often using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>so that, in order to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Engineers go abroad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in order to</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gain exposure to modern technologies.</t>
+    </r>
+  </si>
+  <si>
+    <t>Relative Clauses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Add extra information about a noun using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who, which, that, whose, where</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doctors </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who work in rural areas</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> often have to improvise with limited resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>Focuses on the action or result rather than who does it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Technical skills </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are taught</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> intensively during medical training.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Emphasizes a point by reversing word order (e.g., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not only / Only by…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only by working abroad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can they fully develop</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their expertise.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cleft Sentences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Highlights one part of the sentence using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What / It is… that…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is the variety of challenges </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>that makes overseas work enriching.</t>
+    </r>
+  </si>
+  <si>
+    <t>Modal Verbs (Polite / Hypothetical)</t>
+  </si>
+  <si>
+    <t>Shows possibility, advice, or permission formally.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Professionals </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> have the freedom to work where they choose.</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditional Sentences</t>
+  </si>
+  <si>
+    <t>Show outcomes based on conditions, real or imaginary.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If engineers gain access to better resources, they </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>can innovate</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more effectively.</t>
+    </r>
+  </si>
+  <si>
+    <t>Noun Clauses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Clauses acting as a noun (subject or object), often with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what, that, whether</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What matters most is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how they apply their training.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -404,8 +930,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,16 +1268,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8F3D65-58EB-1A4F-802B-6719F9D83559}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="156" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
     <col min="3" max="3" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1160,6 +1688,138 @@
         <v>110</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
